--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/4 INTEGRACION DE PROVEEDORES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/4 INTEGRACION DE PROVEEDORES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B509CB-E367-4C32-B2BE-8FFEC33C536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -78,12 +73,6 @@
     <t>Puesto:</t>
   </si>
   <si>
-    <t xml:space="preserve">    Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Revisar:</t>
   </si>
   <si>
@@ -96,12 +85,6 @@
     <t>Revisa autenticidad de documentos que respaldan transacciones registradas en auxiliares contables, facturas y notas de crédito.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                          Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                              INTEGRACION CUENTAS POR PAGAR</t>
-  </si>
-  <si>
     <t>Proveedor</t>
   </si>
   <si>
@@ -115,13 +98,25 @@
   </si>
   <si>
     <t>H-3</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>INTEGRACION CUENTAS POR PAGAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +138,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -287,50 +277,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,7 +387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -459,7 +454,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="25 Conector recto"/>
+        <xdr:cNvPr id="3" name="25 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -507,7 +508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="26 Conector recto"/>
+        <xdr:cNvPr id="4" name="26 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -555,7 +562,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="29 Conector recto"/>
+        <xdr:cNvPr id="5" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -603,7 +616,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="30 Conector recto"/>
+        <xdr:cNvPr id="6" name="30 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -651,7 +670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="31 Triángulo isósceles"/>
+        <xdr:cNvPr id="7" name="31 Triángulo isósceles">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -696,7 +721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -805,7 +836,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -855,13 +892,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:E20" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="B12:E20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B12:E20" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="B12:E20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Proveedor" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Factura/Documento"/>
-    <tableColumn id="3" name="Fecha de Vencimiento"/>
-    <tableColumn id="4" name="Monto Pendiente"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Proveedor" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Factura/Documento"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fecha de Vencimiento"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Monto Pendiente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1163,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1178,11 +1215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,8 +1233,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="25" t="s">
-        <v>27</v>
+      <c r="G4" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,231 +1242,240 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="F6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="F7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="F8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="F9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>26</v>
+      <c r="B12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="15" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="19"/>
+      <c r="E51" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
